--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390787.325163058</v>
+        <v>2386481.608786986</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>237.1298127151659</v>
       </c>
       <c r="I2" t="n">
-        <v>99.7249609651961</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>162.5776147681367</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.6002284210668</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>95.09774413911198</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>309.0691651824496</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.54548707014979</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>79.32712070475445</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>197.721863860495</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>29.98312440873153</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>106.9361997154452</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3163612303118</v>
+        <v>11.81332727248867</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>105.9742079424025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>180.668762509175</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
-        <v>139.9537444639936</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>198.6492978738588</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>60.64713141731143</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>187.3950166973338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>6.228861054224671</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>126.9927435506633</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>140.4383865840213</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>184.1864835478238</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.2221689967083</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3948,16 +3948,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>23.08134457786378</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>1.619672595757311</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1679.782215419422</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1310.819698479011</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>1310.819698479011</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>1310.819698479011</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="F2" t="n">
-        <v>899.8337936894031</v>
+        <v>864.8978292757404</v>
       </c>
       <c r="G2" t="n">
-        <v>481.86998558759</v>
+        <v>446.9340211739272</v>
       </c>
       <c r="H2" t="n">
-        <v>154.6752656235928</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.782215419422</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,28 +4400,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>568.8128444327161</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>568.8128444327161</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>568.8128444327161</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>568.8128444327161</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>218.1627947174723</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>560.9872140232164</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>150.0013092336089</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942546</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1405.321187657107</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1405.321187657107</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1756.46040851209</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="C8" t="n">
-        <v>1387.497891571678</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="D8" t="n">
-        <v>1387.497891571678</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202536</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202536</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374774</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>617.9730006750464</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1249.690811658358</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587067</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243321</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2617.020686265945</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2617.020686265945</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2363.328983011096</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.17946291663</v>
+        <v>2032.266095667526</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.17946291663</v>
+        <v>1679.497440397412</v>
       </c>
       <c r="X8" t="n">
-        <v>1756.46040851209</v>
+        <v>1306.031682136332</v>
       </c>
       <c r="Y8" t="n">
-        <v>1756.46040851209</v>
+        <v>915.8923501605201</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>744.5715932067358</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1385.11694267384</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1583.773684326505</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2133.209693079228</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.7092995462731</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="C10" t="n">
-        <v>332.7092995462731</v>
+        <v>547.0232343236103</v>
       </c>
       <c r="D10" t="n">
-        <v>332.7092995462731</v>
+        <v>396.9065949112745</v>
       </c>
       <c r="E10" t="n">
-        <v>332.7092995462731</v>
+        <v>248.9935013288814</v>
       </c>
       <c r="F10" t="n">
-        <v>332.7092995462731</v>
+        <v>102.103553830971</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460381</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4989,25 +4989,25 @@
         <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>923.3997019991118</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="V10" t="n">
-        <v>668.715213793225</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="W10" t="n">
-        <v>560.6988504442904</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="X10" t="n">
-        <v>332.7092995462731</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="Y10" t="n">
-        <v>332.7092995462731</v>
+        <v>715.9594172515172</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5132,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835331</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289434</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>3212.252935505192</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>3809.631423131744</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.30868757553</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.30868757553</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.469384076044</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.867919098985</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.792692443183</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,13 +5840,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3192.420589669523</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741616</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>4366.610899402999</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>4077.535672747197</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>3822.85118454131</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>3822.85118454131</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>3594.861633643293</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>3374.069054499763</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2854.440648734749</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>2854.440648734749</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2884.660124662804</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3482.038612289356</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2878.798005073648</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>2878.798005073648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>3798.645769982396</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>3509.228599945435</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>3281.239049047418</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>3060.446469903888</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>2978.613657539998</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3606.211621094605</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3112.537432147379</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>2943.601249219472</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>2793.484609807137</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V31" t="n">
-        <v>3742.968027019167</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W31" t="n">
-        <v>3742.968027019167</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X31" t="n">
-        <v>3514.978476121149</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y31" t="n">
-        <v>3294.185896977619</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6785,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3026.711098656041</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656041</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243706</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4481.930492505519</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4262.329027528461</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3973.253800872659</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3718.569312666772</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3429.152142629811</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3429.152142629811</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>3208.359563486281</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7265,10 +7265,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E40" t="n">
         <v>464.5051450557705</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.6143379232838</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
         <v>779.6143379232838</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1954.146591037919</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1699.462102832032</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1410.044932795071</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1182.055381897054</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>961.2628027535235</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8455,25 +8455,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>412.5899333704309</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>165.3285480751506</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.26829212178296</v>
+        <v>206.7713260796061</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>180.5487903941885</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3575234924696247</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
-        <v>77.45170586329465</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>45.44677382459264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>53.48834544996919</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>120.3791545843332</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>64.74262662649423</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.1765892730636</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>91.59190980143151</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>40.58789941762333</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>34.39816980427096</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>87.17534280744516</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.36248435538653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>263.1031298113804</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>250.5179707280707</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="9">
@@ -26319,19 +26319,19 @@
         <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398212</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675039</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675045</v>
@@ -26340,22 +26340,22 @@
         <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682724</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>322999.8338717702</v>
       </c>
       <c r="D6" t="n">
-        <v>167196.0277779746</v>
+        <v>167196.0277779743</v>
       </c>
       <c r="E6" t="n">
-        <v>-272492.8080038918</v>
+        <v>-272840.1872582491</v>
       </c>
       <c r="F6" t="n">
-        <v>498559.8833769145</v>
+        <v>498212.5041225574</v>
       </c>
       <c r="G6" t="n">
-        <v>498559.8833769143</v>
+        <v>498212.5041225575</v>
       </c>
       <c r="H6" t="n">
-        <v>498559.8833769145</v>
+        <v>498212.5041225571</v>
       </c>
       <c r="I6" t="n">
-        <v>498559.8833769146</v>
+        <v>498212.5041225576</v>
       </c>
       <c r="J6" t="n">
-        <v>322136.6641843214</v>
+        <v>321789.2849299644</v>
       </c>
       <c r="K6" t="n">
-        <v>498559.8833769146</v>
+        <v>498212.5041225574</v>
       </c>
       <c r="L6" t="n">
-        <v>498559.8833769148</v>
+        <v>498212.5041225576</v>
       </c>
       <c r="M6" t="n">
-        <v>374351.3726688561</v>
+        <v>374003.993414499</v>
       </c>
       <c r="N6" t="n">
-        <v>498559.8833769146</v>
+        <v>498212.5041225574</v>
       </c>
       <c r="O6" t="n">
-        <v>498559.8833769147</v>
+        <v>498212.5041225573</v>
       </c>
       <c r="P6" t="n">
-        <v>498559.8833769144</v>
+        <v>498212.5041225573</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86.79296004919127</v>
       </c>
       <c r="I2" t="n">
-        <v>52.20635527966515</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>4.732187490914185</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.6816458209109</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>318.686425881683</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>60.6619354960194</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>231.9775112664412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>75.32576642338573</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>172.009236817974</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>136.9376521458389</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28070,13 +28070,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>179.5867986211458</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709955</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547047</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>307.9814458135814</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34465,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>608.887118109807</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35269,7 +35269,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>275.1160506279778</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35412,7 +35412,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N15" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876622</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748306</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>169.4270660337073</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36840,13 +36840,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>485.6519634391653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38113,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2386481.608786986</v>
+        <v>2388242.139089772</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>278.7329666858698</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>237.1298127151659</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>162.5776147681367</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>95.09774413911198</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>45.70091141597378</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>342.499963550216</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>79.32712070475445</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>29.98312440873153</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>180.8663827412851</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>206.1466683956875</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.81332727248867</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.3722917337076</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428303</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612769</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>213.998715047587</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>60.64713141731143</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.9927435506633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.1864835478238</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>61.44013021076719</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>1.619672595757311</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4309,19 +4309,19 @@
         <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.883734065348</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.883734065348</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>1275.883734065348</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="F2" t="n">
-        <v>864.8978292757404</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>446.9340211739272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.1627947174723</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>218.1627947174723</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>218.1627947174723</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>218.1627947174723</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.1627947174723</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>946.7754666214607</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>560.9872140232164</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>150.0013092336089</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2650.986554234411</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.809066548581</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.809066548581</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.809066548581</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.809066548581</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2122.040411278466</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2122.040411278466</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>915.8923501605201</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C8" t="n">
-        <v>915.8923501605201</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D8" t="n">
-        <v>915.8923501605201</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605201</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>837.8186267893765</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4807,19 +4807,19 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>318.8683807588021</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>871.6816390050013</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1058.381051830409</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2617.020686265945</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2617.020686265945</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2363.328983011096</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2032.266095667526</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1679.497440397412</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1306.031682136332</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>915.8923501605201</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9594172515172</v>
+        <v>240.753752507634</v>
       </c>
       <c r="C10" t="n">
-        <v>547.0232343236103</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="D10" t="n">
-        <v>396.9065949112745</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9935013288814</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>102.103553830971</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
         <v>71.81756957972706</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>715.9594172515172</v>
+        <v>871.1843473794212</v>
       </c>
       <c r="X10" t="n">
-        <v>715.9594172515172</v>
+        <v>643.1947964814038</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.9594172515172</v>
+        <v>422.4022173378737</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913858</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211833</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468474</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703123</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424054</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300697</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476766</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468474</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5910,34 +5910,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
         <v>2171.280006238955</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654457</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>277.5052172074016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284095</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2385.703354875905</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>2166.101889898846</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1877.026663243044</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.342175037157</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1332.925005000197</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.935454102179</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.1428749586493</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>788.0191461778176</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>615.644930552589</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>797.2933953828287</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7168,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8455,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>162.7555498691535</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-1.728303537669832e-12</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-2.796385757349152e-12</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-3.296918293926865e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>80.03780599355662</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.7713260796061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>12.04875628922363</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194083</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>191.8807364711606</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>38.13892827624099</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>120.3791545843332</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>91.59190980143151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.39816980427096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>87.17534280744516</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101049</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812026.1514101048</v>
+        <v>812026.1514101047</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
         <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.691380807</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682692</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682694</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682692</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682689</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
@@ -26444,7 +26444,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
@@ -26453,13 +26453,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682798</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266968.0453427748</v>
+        <v>-266968.0453427744</v>
       </c>
       <c r="C6" t="n">
         <v>322999.8338717702</v>
       </c>
       <c r="D6" t="n">
-        <v>167196.0277779743</v>
+        <v>167196.0277779744</v>
       </c>
       <c r="E6" t="n">
-        <v>-272840.1872582491</v>
+        <v>-272527.5459293278</v>
       </c>
       <c r="F6" t="n">
-        <v>498212.5041225574</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="G6" t="n">
-        <v>498212.5041225575</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="H6" t="n">
-        <v>498212.5041225571</v>
+        <v>498525.1454514789</v>
       </c>
       <c r="I6" t="n">
-        <v>498212.5041225576</v>
+        <v>498525.1454514789</v>
       </c>
       <c r="J6" t="n">
-        <v>321789.2849299644</v>
+        <v>322101.9262588862</v>
       </c>
       <c r="K6" t="n">
-        <v>498212.5041225574</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="L6" t="n">
-        <v>498212.5041225576</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="M6" t="n">
-        <v>374003.993414499</v>
+        <v>374316.6347434203</v>
       </c>
       <c r="N6" t="n">
-        <v>498212.5041225574</v>
+        <v>498525.145451479</v>
       </c>
       <c r="O6" t="n">
-        <v>498212.5041225573</v>
+        <v>498525.1454514784</v>
       </c>
       <c r="P6" t="n">
-        <v>498212.5041225573</v>
+        <v>498525.1454514788</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>128.1430790558417</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>86.79296004919127</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.732187490914185</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>318.686425881683</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>8.777491158837947</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>114.7731302731595</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>70.41694039572081</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>75.32576642338573</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>136.9376521458389</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>105.6566155953059</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950803</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565753</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565753</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226044</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>441.02926936555</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593851</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,10 +34216,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>246.1526757020751</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35190,7 +35190,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35260,7 +35260,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35269,10 +35269,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790292</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>37.76383318075003</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243133</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121309</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462659</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121309</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902372</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427302</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>302.4748895856758</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795109</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,10 +37864,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
